--- a/Data/West Lines Informations.xlsx
+++ b/Data/West Lines Informations.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F728CB73-D52E-4308-8FC5-AF74B6CE50E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="West (2)" sheetId="6" r:id="rId1"/>
@@ -13,15 +12,15 @@
     <sheet name="Sum West" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">West!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">West!$A$1:$Q$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'West (2)'!$A$1:$Q$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="104">
   <si>
     <t xml:space="preserve"> مرصاد-دیاله</t>
   </si>
@@ -72,18 +71,6 @@
   </si>
   <si>
     <t>طول خط (کیلومتر)</t>
-  </si>
-  <si>
-    <t>مجموع 400</t>
-  </si>
-  <si>
-    <t>مجموع 230</t>
-  </si>
-  <si>
-    <t>مجموع 132</t>
-  </si>
-  <si>
-    <t>مجموع 63</t>
   </si>
   <si>
     <t>تعداد  کل برج ها</t>
@@ -312,16 +299,61 @@
   <si>
     <t>BU814</t>
   </si>
+  <si>
+    <t>901A</t>
+  </si>
+  <si>
+    <t>901B</t>
+  </si>
+  <si>
+    <t>604A</t>
+  </si>
+  <si>
+    <t>604B</t>
+  </si>
+  <si>
+    <t>608A</t>
+  </si>
+  <si>
+    <t>608B</t>
+  </si>
+  <si>
+    <t>609A</t>
+  </si>
+  <si>
+    <t>609B</t>
+  </si>
+  <si>
+    <t>611A</t>
+  </si>
+  <si>
+    <t>611B</t>
+  </si>
+  <si>
+    <t>616A</t>
+  </si>
+  <si>
+    <t>616B</t>
+  </si>
+  <si>
+    <t>616C</t>
+  </si>
+  <si>
+    <t>کد خط</t>
+  </si>
+  <si>
+    <t>سطح ولتاژ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -360,6 +392,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -448,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +519,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,9 +540,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -538,9 +580,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,7 +617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -610,7 +652,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -783,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D8300B-DD95-4128-9BC5-0C9469439D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -794,46 +836,46 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="10.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>16</v>
@@ -851,25 +893,25 @@
         <v>13</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>400</v>
       </c>
@@ -877,10 +919,10 @@
         <v>901</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -914,25 +956,25 @@
         <v>4</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>400</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -966,16 +1008,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>400</v>
       </c>
@@ -986,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1020,16 +1062,16 @@
         <v>13</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>230</v>
       </c>
@@ -1037,10 +1079,10 @@
         <v>801</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1074,16 +1116,16 @@
         <v>25</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>230</v>
       </c>
@@ -1094,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
@@ -1128,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>230</v>
       </c>
@@ -1145,10 +1187,10 @@
         <v>803</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -1182,16 +1224,16 @@
         <v>86</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>230</v>
       </c>
@@ -1199,10 +1241,10 @@
         <v>804</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -1236,16 +1278,16 @@
         <v>14</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>230</v>
       </c>
@@ -1253,10 +1295,10 @@
         <v>805</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1290,16 +1332,16 @@
         <v>3</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>230</v>
       </c>
@@ -1310,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
@@ -1344,16 +1386,16 @@
         <v>23</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>132</v>
       </c>
@@ -1364,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
@@ -1398,16 +1440,16 @@
         <v>16</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>63</v>
       </c>
@@ -1418,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5">
         <v>2</v>
@@ -1452,16 +1494,16 @@
         <v>20</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>63</v>
       </c>
@@ -1469,10 +1511,10 @@
         <v>602</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
@@ -1506,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>63</v>
       </c>
@@ -1523,10 +1565,10 @@
         <v>603</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14" s="5">
         <v>2</v>
@@ -1560,16 +1602,16 @@
         <v>32</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>63</v>
       </c>
@@ -1580,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1614,25 +1656,25 @@
         <v>19</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>63</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1666,16 +1708,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>63</v>
       </c>
@@ -1683,10 +1725,10 @@
         <v>605</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1720,16 +1762,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>63</v>
       </c>
@@ -1740,7 +1782,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E18" s="5">
         <v>2</v>
@@ -1774,16 +1816,16 @@
         <v>52</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>63</v>
       </c>
@@ -1791,10 +1833,10 @@
         <v>607</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5">
         <v>2</v>
@@ -1828,16 +1870,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>63</v>
       </c>
@@ -1845,10 +1887,10 @@
         <v>608</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1882,25 +1924,25 @@
         <v>34</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>63</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5">
         <v>2</v>
@@ -1934,16 +1976,16 @@
         <v>12</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>63</v>
       </c>
@@ -1951,10 +1993,10 @@
         <v>609</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1988,25 +2030,25 @@
         <v>25</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>63</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5">
         <v>2</v>
@@ -2040,16 +2082,16 @@
         <v>11</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>63</v>
       </c>
@@ -2057,10 +2099,10 @@
         <v>610</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E24" s="5">
         <v>2</v>
@@ -2094,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>63</v>
       </c>
@@ -2114,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E25" s="5">
         <v>2</v>
@@ -2148,25 +2190,25 @@
         <v>6</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>63</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2200,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>63</v>
       </c>
@@ -2220,7 +2262,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5">
         <v>2</v>
@@ -2254,16 +2296,16 @@
         <v>18</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>63</v>
       </c>
@@ -2271,10 +2313,10 @@
         <v>613</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -2308,16 +2350,16 @@
         <v>33</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>63</v>
       </c>
@@ -2325,10 +2367,10 @@
         <v>614</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E29" s="5">
         <v>2</v>
@@ -2362,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>63</v>
       </c>
@@ -2379,10 +2421,10 @@
         <v>615</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2416,16 +2458,16 @@
         <v>4</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>63</v>
       </c>
@@ -2433,10 +2475,10 @@
         <v>616</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -2470,25 +2512,25 @@
         <v>0</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>63</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2522,25 +2564,25 @@
         <v>0</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>63</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2574,17 +2616,17 @@
         <v>0</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q33" xr:uid="{E2E88AE6-3517-4B2C-A67E-0A369241730C}"/>
+  <autoFilter ref="A1:Q33"/>
   <mergeCells count="6">
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B2:B3"/>
@@ -2599,57 +2641,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E88AE6-3517-4B2C-A67E-0A369241730C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="10.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.25" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>16</v>
@@ -2667,36 +2709,36 @@
         <v>13</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="5">
         <v>400</v>
       </c>
-      <c r="B2" s="8">
-        <v>901</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -2730,25 +2772,27 @@
         <v>4</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="5">
         <v>400</v>
       </c>
-      <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -2782,27 +2826,27 @@
         <v>0</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
+        <v>902</v>
+      </c>
+      <c r="B4" s="5">
         <v>400</v>
-      </c>
-      <c r="B4" s="5">
-        <v>902</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -2836,180 +2880,189 @@
         <v>13</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>801</v>
+      </c>
+      <c r="B5" s="5">
+        <v>230</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>98</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ref="H5:H10" si="0">G5*E5</f>
+        <v>98</v>
+      </c>
+      <c r="I5" s="5">
+        <v>278</v>
+      </c>
+      <c r="J5" s="5">
+        <v>209</v>
+      </c>
+      <c r="K5" s="5">
+        <v>69</v>
+      </c>
+      <c r="L5" s="5">
+        <v>83</v>
+      </c>
+      <c r="M5" s="5">
+        <v>170</v>
+      </c>
+      <c r="N5" s="5">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:N5" si="0">SUM(G2:G4)</f>
-        <v>194.78300000000002</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="P5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>802</v>
+      </c>
+      <c r="B6" s="5">
+        <v>230</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>197.233</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>477</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>394</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="0"/>
-        <v>374</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>7</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>803</v>
+      </c>
+      <c r="B7" s="5">
         <v>230</v>
       </c>
-      <c r="B6" s="5">
-        <v>801</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>98</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" ref="H6:H11" si="1">G6*E6</f>
-        <v>98</v>
-      </c>
-      <c r="I6" s="5">
-        <v>278</v>
-      </c>
-      <c r="J6" s="5">
-        <v>209</v>
-      </c>
-      <c r="K6" s="5">
-        <v>69</v>
-      </c>
-      <c r="L6" s="5">
-        <v>83</v>
-      </c>
-      <c r="M6" s="5">
-        <v>170</v>
-      </c>
-      <c r="N6" s="5">
-        <v>25</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>230</v>
-      </c>
-      <c r="B7" s="5">
-        <v>802</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>1.5189999999999999</v>
+        <v>44.5</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
-        <v>3.0379999999999998</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="I7" s="5">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="J7" s="5">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="K7" s="5">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="L7" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M7" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N7" s="5">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
+        <v>804</v>
+      </c>
+      <c r="B8" s="5">
         <v>230</v>
       </c>
-      <c r="B8" s="5">
-        <v>803</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -3018,160 +3071,160 @@
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>44.5</v>
+        <v>81.866</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>163.732</v>
+      </c>
+      <c r="I8" s="5">
+        <v>219</v>
+      </c>
+      <c r="J8" s="5">
+        <v>181</v>
+      </c>
+      <c r="K8" s="5">
+        <v>38</v>
+      </c>
+      <c r="L8" s="5">
+        <v>74</v>
+      </c>
+      <c r="M8" s="5">
+        <v>131</v>
+      </c>
+      <c r="N8" s="5">
+        <v>14</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>805</v>
+      </c>
+      <c r="B9" s="5">
+        <v>230</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>47.930999999999997</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>47.930999999999997</v>
+      </c>
+      <c r="I9" s="5">
+        <v>125</v>
+      </c>
+      <c r="J9" s="5">
+        <v>104</v>
+      </c>
+      <c r="K9" s="5">
+        <v>21</v>
+      </c>
+      <c r="L9" s="5">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5">
         <v>89</v>
       </c>
-      <c r="I8" s="5">
-        <v>122</v>
-      </c>
-      <c r="J8" s="5">
-        <v>52</v>
-      </c>
-      <c r="K8" s="5">
-        <v>70</v>
-      </c>
-      <c r="L8" s="5">
-        <v>11</v>
-      </c>
-      <c r="M8" s="5">
-        <v>25</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="N9" s="5">
+        <v>3</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>806</v>
+      </c>
+      <c r="B10" s="5">
+        <v>230</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>230</v>
-      </c>
-      <c r="B9" s="5">
-        <v>804</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>81.866</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="1"/>
-        <v>163.732</v>
-      </c>
-      <c r="I9" s="5">
-        <v>219</v>
-      </c>
-      <c r="J9" s="5">
-        <v>181</v>
-      </c>
-      <c r="K9" s="5">
-        <v>38</v>
-      </c>
-      <c r="L9" s="5">
-        <v>74</v>
-      </c>
-      <c r="M9" s="5">
-        <v>131</v>
-      </c>
-      <c r="N9" s="5">
-        <v>14</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>230</v>
-      </c>
-      <c r="B10" s="5">
-        <v>805</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
       <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>47.930999999999997</v>
+        <v>74.804000000000002</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
-        <v>47.930999999999997</v>
+        <f t="shared" si="0"/>
+        <v>149.608</v>
       </c>
       <c r="I10" s="5">
+        <v>194</v>
+      </c>
+      <c r="J10" s="5">
+        <v>146</v>
+      </c>
+      <c r="K10" s="5">
+        <v>48</v>
+      </c>
+      <c r="L10" s="5">
+        <v>46</v>
+      </c>
+      <c r="M10" s="5">
         <v>125</v>
       </c>
-      <c r="J10" s="5">
-        <v>104</v>
-      </c>
-      <c r="K10" s="5">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5">
-        <v>33</v>
-      </c>
-      <c r="M10" s="5">
-        <v>89</v>
-      </c>
       <c r="N10" s="5">
+        <v>23</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>701</v>
+      </c>
+      <c r="B11" s="5">
+        <v>132</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>230</v>
-      </c>
-      <c r="B11" s="5">
-        <v>806</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>90</v>
+      <c r="D11" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
@@ -3180,97 +3233,106 @@
         <v>1</v>
       </c>
       <c r="G11" s="5">
-        <v>74.804000000000002</v>
+        <v>48.515000000000001</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="1"/>
-        <v>149.608</v>
+        <f>G11*E11</f>
+        <v>97.03</v>
       </c>
       <c r="I11" s="5">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="J11" s="5">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="K11" s="5">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="L11" s="5">
+        <v>33</v>
+      </c>
+      <c r="M11" s="5">
+        <v>80</v>
+      </c>
+      <c r="N11" s="5">
+        <v>16</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="5">
-        <v>125</v>
-      </c>
-      <c r="N11" s="5">
-        <v>23</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>601</v>
+      </c>
+      <c r="B12" s="5">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>87.311000000000007</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" ref="H12:H33" si="1">G12*E12</f>
+        <v>174.62200000000001</v>
+      </c>
+      <c r="I12" s="5">
+        <v>323</v>
+      </c>
+      <c r="J12" s="5">
+        <v>256</v>
+      </c>
+      <c r="K12" s="5">
+        <v>67</v>
+      </c>
+      <c r="L12" s="5">
+        <v>82</v>
+      </c>
+      <c r="M12" s="5">
+        <v>221</v>
+      </c>
+      <c r="N12" s="5">
+        <v>20</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <f>SUM(G6:G11)</f>
-        <v>348.62</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" ref="H12:N12" si="2">SUM(H6:H11)</f>
-        <v>551.30899999999997</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="2"/>
-        <v>945</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="2"/>
-        <v>695</v>
-      </c>
-      <c r="K12" s="7">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="2"/>
-        <v>254</v>
-      </c>
-      <c r="M12" s="7">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="N12" s="7">
-        <f t="shared" si="2"/>
-        <v>151</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>132</v>
+        <v>602</v>
       </c>
       <c r="B13" s="5">
-        <v>701</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
@@ -3279,336 +3341,347 @@
         <v>1</v>
       </c>
       <c r="G13" s="5">
-        <v>48.515000000000001</v>
+        <v>13.52</v>
       </c>
       <c r="H13" s="5">
-        <f>G13*E13</f>
-        <v>97.03</v>
+        <f t="shared" si="1"/>
+        <v>27.04</v>
       </c>
       <c r="I13" s="5">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="J13" s="5">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="K13" s="5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L13" s="5">
+        <v>21</v>
+      </c>
+      <c r="M13" s="5">
+        <v>32</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>603</v>
+      </c>
+      <c r="B14" s="5">
+        <v>63</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="5">
-        <v>80</v>
-      </c>
-      <c r="N13" s="5">
-        <v>16</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>36.4</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>72.8</v>
+      </c>
+      <c r="I14" s="5">
+        <v>126</v>
+      </c>
+      <c r="J14" s="5">
+        <v>91</v>
+      </c>
+      <c r="K14" s="5">
+        <v>35</v>
+      </c>
+      <c r="L14" s="5">
+        <v>51</v>
+      </c>
+      <c r="M14" s="5">
+        <v>44</v>
+      </c>
+      <c r="N14" s="5">
+        <v>32</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="5">
+        <v>63</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>62.939</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>62.939</v>
+      </c>
+      <c r="I15" s="5">
+        <v>214</v>
+      </c>
+      <c r="J15" s="5">
+        <v>193</v>
+      </c>
+      <c r="K15" s="5">
+        <v>21</v>
+      </c>
+      <c r="L15" s="5">
+        <v>100</v>
+      </c>
+      <c r="M15" s="5">
+        <v>95</v>
+      </c>
+      <c r="N15" s="5">
+        <v>19</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <f t="shared" ref="G14:N14" si="3">SUM(G13)</f>
-        <v>48.515000000000001</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="3"/>
-        <v>97.03</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="M14" s="7">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="N14" s="7">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>63</v>
-      </c>
-      <c r="B15" s="5">
-        <v>601</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>87.311000000000007</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" ref="H15:H36" si="4">G15*E15</f>
-        <v>174.62200000000001</v>
-      </c>
-      <c r="I15" s="5">
-        <v>323</v>
-      </c>
-      <c r="J15" s="5">
-        <v>256</v>
-      </c>
-      <c r="K15" s="5">
-        <v>67</v>
-      </c>
-      <c r="L15" s="5">
-        <v>82</v>
-      </c>
-      <c r="M15" s="5">
-        <v>221</v>
-      </c>
-      <c r="N15" s="5">
-        <v>20</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="Q15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>63</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B16" s="5">
-        <v>602</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>13.52</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="4"/>
-        <v>27.04</v>
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I16" s="5">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J16" s="5">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K16" s="5">
+        <v>3</v>
+      </c>
+      <c r="L16" s="5">
         <v>15</v>
       </c>
-      <c r="L16" s="5">
-        <v>21</v>
-      </c>
       <c r="M16" s="5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N16" s="5">
         <v>0</v>
       </c>
       <c r="O16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>605</v>
+      </c>
+      <c r="B17" s="5">
+        <v>63</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>2.39</v>
+      </c>
+      <c r="I17" s="5">
+        <v>12</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>10</v>
+      </c>
+      <c r="L17" s="5">
+        <v>6</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>606</v>
+      </c>
+      <c r="B18" s="5">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>37</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="I18" s="5">
+        <v>131</v>
+      </c>
+      <c r="J18" s="5">
+        <v>68</v>
+      </c>
+      <c r="K18" s="5">
+        <v>63</v>
+      </c>
+      <c r="L18" s="5">
+        <v>20</v>
+      </c>
+      <c r="M18" s="5">
+        <v>59</v>
+      </c>
+      <c r="N18" s="5">
         <v>52</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>63</v>
-      </c>
-      <c r="B17" s="5">
-        <v>603</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="P18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>607</v>
+      </c>
+      <c r="B19" s="5">
+        <v>63</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>36.4</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="4"/>
-        <v>72.8</v>
-      </c>
-      <c r="I17" s="5">
-        <v>126</v>
-      </c>
-      <c r="J17" s="5">
-        <v>91</v>
-      </c>
-      <c r="K17" s="5">
-        <v>35</v>
-      </c>
-      <c r="L17" s="5">
-        <v>51</v>
-      </c>
-      <c r="M17" s="5">
-        <v>44</v>
-      </c>
-      <c r="N17" s="5">
-        <v>32</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>63</v>
-      </c>
-      <c r="B18" s="8">
-        <v>604</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>62.939</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="4"/>
-        <v>62.939</v>
-      </c>
-      <c r="I18" s="5">
-        <v>214</v>
-      </c>
-      <c r="J18" s="5">
-        <v>193</v>
-      </c>
-      <c r="K18" s="5">
-        <v>21</v>
-      </c>
-      <c r="L18" s="5">
-        <v>100</v>
-      </c>
-      <c r="M18" s="5">
-        <v>95</v>
-      </c>
-      <c r="N18" s="5">
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>8</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I19" s="5">
+        <v>53</v>
+      </c>
+      <c r="J19" s="5">
+        <v>34</v>
+      </c>
+      <c r="K19" s="5">
         <v>19</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="L19" s="5">
         <v>53</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>63</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I19" s="5">
-        <v>15</v>
-      </c>
-      <c r="J19" s="5">
-        <v>12</v>
-      </c>
-      <c r="K19" s="5">
-        <v>3</v>
-      </c>
-      <c r="L19" s="5">
-        <v>15</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -3617,81 +3690,81 @@
         <v>0</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5">
+        <v>63</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>45.35</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>45.35</v>
+      </c>
+      <c r="I20" s="5">
+        <v>178</v>
+      </c>
+      <c r="J20" s="5">
+        <v>143</v>
+      </c>
+      <c r="K20" s="5">
+        <v>35</v>
+      </c>
+      <c r="L20" s="5">
+        <v>37</v>
+      </c>
+      <c r="M20" s="5">
+        <v>108</v>
+      </c>
+      <c r="N20" s="5">
+        <v>34</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>63</v>
-      </c>
-      <c r="B20" s="5">
-        <v>605</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2.39</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="4"/>
-        <v>2.39</v>
-      </c>
-      <c r="I20" s="5">
-        <v>12</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2</v>
-      </c>
-      <c r="K20" s="5">
-        <v>10</v>
-      </c>
-      <c r="L20" s="5">
-        <v>6</v>
-      </c>
-      <c r="M20" s="5">
-        <v>5</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="Q20" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>63</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="B21" s="5">
-        <v>606</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5">
         <v>2</v>
@@ -3700,158 +3773,160 @@
         <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>37</v>
+        <v>7.2009999999999996</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="4"/>
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>14.401999999999999</v>
       </c>
       <c r="I21" s="5">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="J21" s="5">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K21" s="5">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="L21" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M21" s="5">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="N21" s="5">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>63</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B22" s="5">
-        <v>607</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>8</v>
+        <v>52.927999999999997</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>52.927999999999997</v>
       </c>
       <c r="I22" s="5">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="J22" s="5">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="K22" s="5">
         <v>19</v>
       </c>
       <c r="L22" s="5">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M22" s="5">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N22" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="5">
+        <v>63</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>6.3719999999999999</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="1"/>
+        <v>12.744</v>
+      </c>
+      <c r="I23" s="5">
+        <v>27</v>
+      </c>
+      <c r="J23" s="5">
+        <v>16</v>
+      </c>
+      <c r="K23" s="5">
+        <v>11</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2</v>
+      </c>
+      <c r="M23" s="5">
+        <v>14</v>
+      </c>
+      <c r="N23" s="5">
+        <v>11</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>63</v>
-      </c>
-      <c r="B23" s="8">
-        <v>608</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>45.35</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="4"/>
-        <v>45.35</v>
-      </c>
-      <c r="I23" s="5">
-        <v>178</v>
-      </c>
-      <c r="J23" s="5">
-        <v>143</v>
-      </c>
-      <c r="K23" s="5">
-        <v>35</v>
-      </c>
-      <c r="L23" s="5">
-        <v>37</v>
-      </c>
-      <c r="M23" s="5">
-        <v>108</v>
-      </c>
-      <c r="N23" s="5">
-        <v>34</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="P23" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>63</v>
-      </c>
-      <c r="B24" s="10"/>
+        <v>610</v>
+      </c>
+      <c r="B24" s="5">
+        <v>63</v>
+      </c>
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E24" s="5">
         <v>2</v>
@@ -3860,158 +3935,160 @@
         <v>1</v>
       </c>
       <c r="G24" s="5">
-        <v>7.2009999999999996</v>
+        <v>9.16</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="4"/>
-        <v>14.401999999999999</v>
+        <f t="shared" si="1"/>
+        <v>18.32</v>
       </c>
       <c r="I24" s="5">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J24" s="5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K24" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L24" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M24" s="5">
         <v>17</v>
       </c>
       <c r="N24" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>63</v>
-      </c>
-      <c r="B25" s="8">
-        <v>609</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="5">
+        <v>63</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>32.195</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="1"/>
+        <v>64.39</v>
+      </c>
+      <c r="I25" s="5">
+        <v>134</v>
+      </c>
+      <c r="J25" s="5">
+        <v>108</v>
+      </c>
+      <c r="K25" s="5">
+        <v>26</v>
+      </c>
+      <c r="L25" s="5">
+        <v>28</v>
+      </c>
+      <c r="M25" s="5">
+        <v>100</v>
+      </c>
+      <c r="N25" s="5">
+        <v>6</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="5">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="I26" s="5">
+        <v>45</v>
+      </c>
+      <c r="J26" s="5">
+        <v>23</v>
+      </c>
+      <c r="K26" s="5">
+        <v>22</v>
+      </c>
+      <c r="L26" s="5">
+        <v>14</v>
+      </c>
+      <c r="M26" s="5">
         <v>31</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>52.927999999999997</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="4"/>
-        <v>52.927999999999997</v>
-      </c>
-      <c r="I25" s="5">
-        <v>153</v>
-      </c>
-      <c r="J25" s="5">
-        <v>134</v>
-      </c>
-      <c r="K25" s="5">
-        <v>19</v>
-      </c>
-      <c r="L25" s="5">
-        <v>30</v>
-      </c>
-      <c r="M25" s="5">
-        <v>96</v>
-      </c>
-      <c r="N25" s="5">
-        <v>25</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>63</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="5">
-        <v>2</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
-        <v>6.3719999999999999</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="4"/>
-        <v>12.744</v>
-      </c>
-      <c r="I26" s="5">
-        <v>27</v>
-      </c>
-      <c r="J26" s="5">
-        <v>16</v>
-      </c>
-      <c r="K26" s="5">
-        <v>11</v>
-      </c>
-      <c r="L26" s="5">
-        <v>2</v>
-      </c>
-      <c r="M26" s="5">
-        <v>14</v>
-      </c>
       <c r="N26" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>63</v>
+        <v>612</v>
       </c>
       <c r="B27" s="5">
-        <v>610</v>
+        <v>63</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5">
         <v>2</v>
@@ -4020,52 +4097,52 @@
         <v>1</v>
       </c>
       <c r="G27" s="5">
-        <v>9.16</v>
+        <v>45.18</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="4"/>
-        <v>18.32</v>
+        <f t="shared" si="1"/>
+        <v>90.36</v>
       </c>
       <c r="I27" s="5">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="J27" s="5">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="K27" s="5">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L27" s="5">
+        <v>34</v>
+      </c>
+      <c r="M27" s="5">
+        <v>121</v>
+      </c>
+      <c r="N27" s="5">
         <v>18</v>
       </c>
-      <c r="M27" s="5">
-        <v>17</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0</v>
-      </c>
       <c r="O27" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>63</v>
-      </c>
-      <c r="B28" s="8">
-        <v>611</v>
+        <v>613</v>
+      </c>
+      <c r="B28" s="5">
+        <v>63</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -4074,528 +4151,319 @@
         <v>1</v>
       </c>
       <c r="G28" s="5">
-        <v>32.195</v>
+        <v>54</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="4"/>
-        <v>64.39</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="I28" s="5">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="J28" s="5">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="K28" s="5">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L28" s="5">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="M28" s="5">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N28" s="5">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>614</v>
+      </c>
+      <c r="B29" s="5">
+        <v>63</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q28" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>63</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D29" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
       </c>
       <c r="G29" s="5">
-        <v>5.0229999999999997</v>
+        <v>19.631</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="4"/>
-        <v>5.0229999999999997</v>
+        <f t="shared" si="1"/>
+        <v>39.262</v>
       </c>
       <c r="I29" s="5">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J29" s="5">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K29" s="5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L29" s="5">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M29" s="5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N29" s="5">
         <v>0</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>615</v>
+      </c>
+      <c r="B30" s="5">
+        <v>63</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>12.907</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="1"/>
+        <v>12.907</v>
+      </c>
+      <c r="I30" s="5">
+        <v>54</v>
+      </c>
+      <c r="J30" s="5">
+        <v>45</v>
+      </c>
+      <c r="K30" s="5">
+        <v>9</v>
+      </c>
+      <c r="L30" s="5">
+        <v>38</v>
+      </c>
+      <c r="M30" s="5">
+        <v>12</v>
+      </c>
+      <c r="N30" s="5">
+        <v>4</v>
+      </c>
+      <c r="O30" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5">
-        <v>612</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="P30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="5">
+        <v>63</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>39.898000000000003</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="1"/>
+        <v>39.898000000000003</v>
+      </c>
+      <c r="I31" s="5">
+        <v>501</v>
+      </c>
+      <c r="J31" s="5">
+        <v>441</v>
+      </c>
+      <c r="K31" s="5">
+        <v>60</v>
+      </c>
+      <c r="L31" s="5">
+        <v>300</v>
+      </c>
+      <c r="M31" s="5">
+        <v>201</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="5">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1.415</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="1"/>
+        <v>1.415</v>
+      </c>
+      <c r="I32" s="5">
         <v>6</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>45.18</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="4"/>
-        <v>90.36</v>
-      </c>
-      <c r="I30" s="5">
-        <v>173</v>
-      </c>
-      <c r="J30" s="5">
-        <v>129</v>
-      </c>
-      <c r="K30" s="5">
-        <v>44</v>
-      </c>
-      <c r="L30" s="5">
-        <v>34</v>
-      </c>
-      <c r="M30" s="5">
-        <v>121</v>
-      </c>
-      <c r="N30" s="5">
-        <v>18</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>63</v>
-      </c>
-      <c r="B31" s="5">
-        <v>613</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>54</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="I31" s="5">
-        <v>215</v>
-      </c>
-      <c r="J31" s="5">
-        <v>180</v>
-      </c>
-      <c r="K31" s="5">
-        <v>35</v>
-      </c>
-      <c r="L31" s="5">
-        <v>96</v>
-      </c>
-      <c r="M31" s="5">
-        <v>86</v>
-      </c>
-      <c r="N31" s="5">
-        <v>33</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>63</v>
-      </c>
-      <c r="B32" s="5">
-        <v>614</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
-        <v>19.631</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="4"/>
-        <v>39.262</v>
-      </c>
-      <c r="I32" s="5">
-        <v>74</v>
-      </c>
       <c r="J32" s="5">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="K32" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L32" s="5">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M32" s="5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="5">
+        <v>63</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="I33" s="5">
+        <v>19</v>
+      </c>
+      <c r="J33" s="5">
+        <v>13</v>
+      </c>
+      <c r="K33" s="5">
+        <v>6</v>
+      </c>
+      <c r="L33" s="5">
+        <v>19</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>63</v>
-      </c>
-      <c r="B33" s="5">
-        <v>615</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>12.907</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="4"/>
-        <v>12.907</v>
-      </c>
-      <c r="I33" s="5">
-        <v>54</v>
-      </c>
-      <c r="J33" s="5">
+      <c r="P33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="5">
-        <v>9</v>
-      </c>
-      <c r="L33" s="5">
-        <v>38</v>
-      </c>
-      <c r="M33" s="5">
-        <v>12</v>
-      </c>
-      <c r="N33" s="5">
-        <v>4</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>63</v>
-      </c>
-      <c r="B34" s="8">
-        <v>616</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>39.898000000000003</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="4"/>
-        <v>39.898000000000003</v>
-      </c>
-      <c r="I34" s="5">
-        <v>501</v>
-      </c>
-      <c r="J34" s="5">
-        <v>441</v>
-      </c>
-      <c r="K34" s="5">
-        <v>60</v>
-      </c>
-      <c r="L34" s="5">
-        <v>300</v>
-      </c>
-      <c r="M34" s="5">
-        <v>201</v>
-      </c>
-      <c r="N34" s="5">
-        <v>0</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>63</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1.415</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="4"/>
-        <v>1.415</v>
-      </c>
-      <c r="I35" s="5">
-        <v>6</v>
-      </c>
-      <c r="J35" s="5">
-        <v>3</v>
-      </c>
-      <c r="K35" s="5">
-        <v>3</v>
-      </c>
-      <c r="L35" s="5">
-        <v>6</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>63</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
-        <v>4.2949999999999999</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="4"/>
-        <v>4.2949999999999999</v>
-      </c>
-      <c r="I36" s="5">
-        <v>19</v>
-      </c>
-      <c r="J36" s="5">
-        <v>13</v>
-      </c>
-      <c r="K36" s="5">
-        <v>6</v>
-      </c>
-      <c r="L36" s="5">
-        <v>19</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7">
-        <f t="shared" ref="G37:N37" si="5">SUM(G15:G36)</f>
-        <v>584.21500000000003</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="5"/>
-        <v>940.18500000000006</v>
-      </c>
-      <c r="I37" s="7">
-        <f t="shared" si="5"/>
-        <v>2572</v>
-      </c>
-      <c r="J37" s="7">
-        <f t="shared" si="5"/>
-        <v>2033</v>
-      </c>
-      <c r="K37" s="7">
-        <f t="shared" si="5"/>
-        <v>539</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" si="5"/>
-        <v>1011</v>
-      </c>
-      <c r="M37" s="7">
-        <f t="shared" si="5"/>
-        <v>1295</v>
-      </c>
-      <c r="N37" s="7">
-        <f t="shared" si="5"/>
-        <v>266</v>
-      </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q37" xr:uid="{E2E88AE6-3517-4B2C-A67E-0A369241730C}"/>
-  <mergeCells count="6">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B28:B29"/>
-  </mergeCells>
+  <autoFilter ref="A1:Q33"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23C0CEC-E9F7-461C-86EE-ED6A6AF18ACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4605,15 +4473,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="10" width="20.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4624,207 +4492,207 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>400</v>
       </c>
-      <c r="C3" s="2">
-        <f>West!G5</f>
-        <v>194.78300000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <f>West!H5</f>
-        <v>197.233</v>
-      </c>
-      <c r="E3" s="2">
-        <f>West!I5</f>
-        <v>477</v>
-      </c>
-      <c r="F3" s="2">
-        <f>West!J5</f>
-        <v>394</v>
-      </c>
-      <c r="G3" s="2">
-        <f>West!K5</f>
-        <v>83</v>
-      </c>
-      <c r="H3" s="2">
-        <f>West!L5</f>
-        <v>86</v>
-      </c>
-      <c r="I3" s="2">
-        <f>West!M5</f>
-        <v>374</v>
-      </c>
-      <c r="J3" s="2">
-        <f>West!N5</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I3" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J3" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>230</v>
       </c>
-      <c r="C4" s="2">
-        <f>West!G12</f>
-        <v>348.62</v>
-      </c>
-      <c r="D4" s="2">
-        <f>West!H12</f>
-        <v>551.30899999999997</v>
-      </c>
-      <c r="E4" s="2">
-        <f>West!I12</f>
-        <v>945</v>
-      </c>
-      <c r="F4" s="2">
-        <f>West!J12</f>
-        <v>695</v>
-      </c>
-      <c r="G4" s="2">
-        <f>West!K12</f>
-        <v>250</v>
-      </c>
-      <c r="H4" s="2">
-        <f>West!L12</f>
-        <v>254</v>
-      </c>
-      <c r="I4" s="2">
-        <f>West!M12</f>
-        <v>540</v>
-      </c>
-      <c r="J4" s="2">
-        <f>West!N12</f>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>132</v>
       </c>
-      <c r="C5" s="2">
-        <f>West!G14</f>
-        <v>48.515000000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <f>West!H14</f>
-        <v>97.03</v>
-      </c>
-      <c r="E5" s="2">
-        <f>West!I14</f>
-        <v>129</v>
-      </c>
-      <c r="F5" s="2">
-        <f>West!J14</f>
-        <v>107</v>
-      </c>
-      <c r="G5" s="2">
-        <f>West!K14</f>
-        <v>22</v>
-      </c>
-      <c r="H5" s="2">
-        <f>West!L14</f>
-        <v>33</v>
-      </c>
-      <c r="I5" s="2">
-        <f>West!M14</f>
-        <v>80</v>
-      </c>
-      <c r="J5" s="2">
-        <f>West!N14</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>63</v>
       </c>
-      <c r="C6" s="2">
-        <f>West!G37</f>
-        <v>584.21500000000003</v>
-      </c>
-      <c r="D6" s="2">
-        <f>West!H37</f>
-        <v>940.18500000000006</v>
-      </c>
-      <c r="E6" s="2">
-        <f>West!I37</f>
-        <v>2572</v>
-      </c>
-      <c r="F6" s="2">
-        <f>West!J37</f>
-        <v>2033</v>
-      </c>
-      <c r="G6" s="2">
-        <f>West!K37</f>
-        <v>539</v>
-      </c>
-      <c r="H6" s="2">
-        <f>West!L37</f>
-        <v>1011</v>
-      </c>
-      <c r="I6" s="2">
-        <f>West!M37</f>
-        <v>1295</v>
-      </c>
-      <c r="J6" s="2">
-        <f>West!N37</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="2" t="e">
+        <f>West!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="e">
         <f>SUM(C3:C6)</f>
-        <v>1176.133</v>
-      </c>
-      <c r="D7" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="3" t="e">
         <f t="shared" ref="D7:J7" si="0">SUM(D3:D6)</f>
-        <v>1785.7570000000001</v>
-      </c>
-      <c r="E7" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>4123</v>
-      </c>
-      <c r="F7" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>3229</v>
-      </c>
-      <c r="G7" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>894</v>
-      </c>
-      <c r="H7" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>1384</v>
-      </c>
-      <c r="I7" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>2289</v>
-      </c>
-      <c r="J7" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
